--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Itgb2-Thy1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Itgb2-Thy1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05619066666666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="H2">
-        <v>0.168572</v>
+        <v>6.321202</v>
       </c>
       <c r="I2">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="J2">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.015745</v>
+        <v>16.37527</v>
       </c>
       <c r="N2">
-        <v>6.047235</v>
+        <v>49.12580999999999</v>
       </c>
       <c r="O2">
-        <v>0.01857080082826054</v>
+        <v>0.1209633773771395</v>
       </c>
       <c r="P2">
-        <v>0.01857080082826054</v>
+        <v>0.1209633773771395</v>
       </c>
       <c r="Q2">
-        <v>0.11326605538</v>
+        <v>34.50379649151333</v>
       </c>
       <c r="R2">
-        <v>1.01939449842</v>
+        <v>310.53416842362</v>
       </c>
       <c r="S2">
-        <v>2.440036010527757E-06</v>
+        <v>0.000448014453138515</v>
       </c>
       <c r="T2">
-        <v>2.440036010527756E-06</v>
+        <v>0.0004480144531385151</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05619066666666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="H3">
-        <v>0.168572</v>
+        <v>6.321202</v>
       </c>
       <c r="I3">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="J3">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.79459133333332</v>
+        <v>80.79459133333334</v>
       </c>
       <c r="N3">
         <v>242.383774</v>
       </c>
       <c r="O3">
-        <v>0.7443502346040983</v>
+        <v>0.5968259846393842</v>
       </c>
       <c r="P3">
-        <v>0.7443502346040983</v>
+        <v>0.5968259846393843</v>
       </c>
       <c r="Q3">
-        <v>4.539901950080888</v>
+        <v>170.2396441084832</v>
       </c>
       <c r="R3">
-        <v>40.85911755072799</v>
+        <v>1532.156796976348</v>
       </c>
       <c r="S3">
-        <v>9.780091842430818E-05</v>
+        <v>0.002210476203003257</v>
       </c>
       <c r="T3">
-        <v>9.780091842430818E-05</v>
+        <v>0.002210476203003258</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -667,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05619066666666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="H4">
-        <v>0.168572</v>
+        <v>6.321202</v>
       </c>
       <c r="I4">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="J4">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1439546666666667</v>
+        <v>0.05274599999999999</v>
       </c>
       <c r="N4">
-        <v>0.431864</v>
+        <v>0.158238</v>
       </c>
       <c r="O4">
-        <v>0.001326235929130571</v>
+        <v>0.0003896323115975859</v>
       </c>
       <c r="P4">
-        <v>0.001326235929130571</v>
+        <v>0.0003896323115975861</v>
       </c>
       <c r="Q4">
-        <v>0.008088908689777779</v>
+        <v>0.111139373564</v>
       </c>
       <c r="R4">
-        <v>0.072800178208</v>
+        <v>1.000254362076</v>
       </c>
       <c r="S4">
-        <v>1.742554591727557E-07</v>
+        <v>1.44308889839643E-06</v>
       </c>
       <c r="T4">
-        <v>1.742554591727557E-07</v>
+        <v>1.443088898396431E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.05619066666666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="H5">
-        <v>0.168572</v>
+        <v>6.321202</v>
       </c>
       <c r="I5">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="J5">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.53999566666667</v>
+        <v>37.53882766666667</v>
       </c>
       <c r="N5">
-        <v>70.61998699999999</v>
+        <v>112.616483</v>
       </c>
       <c r="O5">
-        <v>0.2168709688099352</v>
+        <v>0.2772976187469524</v>
       </c>
       <c r="P5">
-        <v>0.2168709688099352</v>
+        <v>0.2772976187469524</v>
       </c>
       <c r="Q5">
-        <v>1.322728049840444</v>
+        <v>79.0968375080629</v>
       </c>
       <c r="R5">
-        <v>11.904552448564</v>
+        <v>711.871537572566</v>
       </c>
       <c r="S5">
-        <v>2.849489251583609E-05</v>
+        <v>0.001027032674792087</v>
       </c>
       <c r="T5">
-        <v>2.849489251583608E-05</v>
+        <v>0.001027032674792088</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.05619066666666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="H6">
-        <v>0.168572</v>
+        <v>6.321202</v>
       </c>
       <c r="I6">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="J6">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.5362146666666666</v>
+        <v>0.5302206666666667</v>
       </c>
       <c r="N6">
-        <v>1.608644</v>
+        <v>1.590662</v>
       </c>
       <c r="O6">
-        <v>0.004940077130717815</v>
+        <v>0.003916716035531537</v>
       </c>
       <c r="P6">
-        <v>0.004940077130717815</v>
+        <v>0.003916716035531538</v>
       </c>
       <c r="Q6">
-        <v>0.03013025959644444</v>
+        <v>1.117210646191556</v>
       </c>
       <c r="R6">
-        <v>0.271172336368</v>
+        <v>10.054895815724</v>
       </c>
       <c r="S6">
-        <v>6.490816527089509E-07</v>
+        <v>1.450641864344255E-05</v>
       </c>
       <c r="T6">
-        <v>6.490816527089509E-07</v>
+        <v>1.450641864344256E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,46 +853,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.05619066666666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="H7">
-        <v>0.168572</v>
+        <v>6.321202</v>
       </c>
       <c r="I7">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="J7">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.513283</v>
+        <v>0.08212733333333333</v>
       </c>
       <c r="N7">
-        <v>4.539849</v>
+        <v>0.246382</v>
       </c>
       <c r="O7">
-        <v>0.01394168269785742</v>
+        <v>0.0006066708893946866</v>
       </c>
       <c r="P7">
-        <v>0.01394168269785741</v>
+        <v>0.0006066708893946868</v>
       </c>
       <c r="Q7">
-        <v>0.08503238062533335</v>
+        <v>0.1730478212404445</v>
       </c>
       <c r="R7">
-        <v>0.765291425628</v>
+        <v>1.557430391164</v>
       </c>
       <c r="S7">
-        <v>1.831811570471203E-06</v>
+        <v>2.246938971452554E-06</v>
       </c>
       <c r="T7">
-        <v>1.831811570471203E-06</v>
+        <v>2.246938971452555E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>139.7989746666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="H8">
-        <v>419.396924</v>
+        <v>657.462113</v>
       </c>
       <c r="I8">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="J8">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.015745</v>
+        <v>16.37527</v>
       </c>
       <c r="N8">
-        <v>6.047235</v>
+        <v>49.12580999999999</v>
       </c>
       <c r="O8">
-        <v>0.01857080082826054</v>
+        <v>0.1209633773771395</v>
       </c>
       <c r="P8">
-        <v>0.01857080082826054</v>
+        <v>0.1209633773771395</v>
       </c>
       <c r="Q8">
-        <v>281.79908418946</v>
+        <v>3588.706538381836</v>
       </c>
       <c r="R8">
-        <v>2536.19175770514</v>
+        <v>32298.35884543653</v>
       </c>
       <c r="S8">
-        <v>0.006070661778139743</v>
+        <v>0.04659755043660802</v>
       </c>
       <c r="T8">
-        <v>0.006070661778139743</v>
+        <v>0.04659755043660804</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>139.7989746666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="H9">
-        <v>419.396924</v>
+        <v>657.462113</v>
       </c>
       <c r="I9">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="J9">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.79459133333332</v>
+        <v>80.79459133333334</v>
       </c>
       <c r="N9">
         <v>242.383774</v>
       </c>
       <c r="O9">
-        <v>0.7443502346040983</v>
+        <v>0.5968259846393842</v>
       </c>
       <c r="P9">
-        <v>0.7443502346040983</v>
+        <v>0.5968259846393843</v>
       </c>
       <c r="Q9">
-        <v>11295.00102701235</v>
+        <v>17706.46091232828</v>
       </c>
       <c r="R9">
-        <v>101655.0092431112</v>
+        <v>159358.1482109545</v>
       </c>
       <c r="S9">
-        <v>0.2433227603132773</v>
+        <v>0.2299094942959801</v>
       </c>
       <c r="T9">
-        <v>0.2433227603132773</v>
+        <v>0.2299094942959802</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>139.7989746666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="H10">
-        <v>419.396924</v>
+        <v>657.462113</v>
       </c>
       <c r="I10">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="J10">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1439546666666667</v>
+        <v>0.05274599999999999</v>
       </c>
       <c r="N10">
-        <v>0.431864</v>
+        <v>0.158238</v>
       </c>
       <c r="O10">
-        <v>0.001326235929130571</v>
+        <v>0.0003896323115975859</v>
       </c>
       <c r="P10">
-        <v>0.001326235929130571</v>
+        <v>0.0003896323115975861</v>
       </c>
       <c r="Q10">
-        <v>20.12471479848178</v>
+        <v>11.559498870766</v>
       </c>
       <c r="R10">
-        <v>181.122433186336</v>
+        <v>104.035489836894</v>
       </c>
       <c r="S10">
-        <v>0.0004335370261209532</v>
+        <v>0.0001500942821296582</v>
       </c>
       <c r="T10">
-        <v>0.0004335370261209532</v>
+        <v>0.0001500942821296582</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>139.7989746666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="H11">
-        <v>419.396924</v>
+        <v>657.462113</v>
       </c>
       <c r="I11">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="J11">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.53999566666667</v>
+        <v>37.53882766666667</v>
       </c>
       <c r="N11">
-        <v>70.61998699999999</v>
+        <v>112.616483</v>
       </c>
       <c r="O11">
-        <v>0.2168709688099352</v>
+        <v>0.2772976187469524</v>
       </c>
       <c r="P11">
-        <v>0.2168709688099352</v>
+        <v>0.2772976187469524</v>
       </c>
       <c r="Q11">
-        <v>3290.867257857777</v>
+        <v>8226.785652423177</v>
       </c>
       <c r="R11">
-        <v>29617.80532071999</v>
+        <v>74041.07087180858</v>
       </c>
       <c r="S11">
-        <v>0.07089356637432241</v>
+        <v>0.1068206762715141</v>
       </c>
       <c r="T11">
-        <v>0.0708935663743224</v>
+        <v>0.1068206762715142</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>139.7989746666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="H12">
-        <v>419.396924</v>
+        <v>657.462113</v>
       </c>
       <c r="I12">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="J12">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.5362146666666666</v>
+        <v>0.5302206666666667</v>
       </c>
       <c r="N12">
-        <v>1.608644</v>
+        <v>1.590662</v>
       </c>
       <c r="O12">
-        <v>0.004940077130717815</v>
+        <v>0.003916716035531537</v>
       </c>
       <c r="P12">
-        <v>0.004940077130717815</v>
+        <v>0.003916716035531538</v>
       </c>
       <c r="Q12">
-        <v>74.96226060122845</v>
+        <v>116.1999999543118</v>
       </c>
       <c r="R12">
-        <v>674.660345411056</v>
+        <v>1045.799999588806</v>
       </c>
       <c r="S12">
-        <v>0.001614875830926668</v>
+        <v>0.001508798588208435</v>
       </c>
       <c r="T12">
-        <v>0.001614875830926668</v>
+        <v>0.001508798588208435</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>139.7989746666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="H13">
-        <v>419.396924</v>
+        <v>657.462113</v>
       </c>
       <c r="I13">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="J13">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>1.513283</v>
+        <v>0.08212733333333333</v>
       </c>
       <c r="N13">
-        <v>4.539849</v>
+        <v>0.246382</v>
       </c>
       <c r="O13">
-        <v>0.01394168269785742</v>
+        <v>0.0006066708893946866</v>
       </c>
       <c r="P13">
-        <v>0.01394168269785741</v>
+        <v>0.0006066708893946868</v>
       </c>
       <c r="Q13">
-        <v>211.5554117804974</v>
+        <v>17.99853670279622</v>
       </c>
       <c r="R13">
-        <v>1903.998706024476</v>
+        <v>161.986830325166</v>
       </c>
       <c r="S13">
-        <v>0.004557436217184538</v>
+        <v>0.0002337019516150952</v>
       </c>
       <c r="T13">
-        <v>0.004557436217184537</v>
+        <v>0.0002337019516150953</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>188.11053</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="H14">
-        <v>564.33159</v>
+        <v>0.13486</v>
       </c>
       <c r="I14">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="J14">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.015745</v>
+        <v>16.37527</v>
       </c>
       <c r="N14">
-        <v>6.047235</v>
+        <v>49.12580999999999</v>
       </c>
       <c r="O14">
-        <v>0.01857080082826054</v>
+        <v>0.1209633773771395</v>
       </c>
       <c r="P14">
-        <v>0.01857080082826054</v>
+        <v>0.1209633773771395</v>
       </c>
       <c r="Q14">
-        <v>379.18286029485</v>
+        <v>0.7361229707333333</v>
       </c>
       <c r="R14">
-        <v>3412.64574265365</v>
+        <v>6.625106736599999</v>
       </c>
       <c r="S14">
-        <v>0.008168553505198881</v>
+        <v>9.558186742056357E-06</v>
       </c>
       <c r="T14">
-        <v>0.00816855350519888</v>
+        <v>9.558186742056361E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>188.11053</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="H15">
-        <v>564.33159</v>
+        <v>0.13486</v>
       </c>
       <c r="I15">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="J15">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>80.79459133333332</v>
+        <v>80.79459133333334</v>
       </c>
       <c r="N15">
         <v>242.383774</v>
       </c>
       <c r="O15">
-        <v>0.7443502346040983</v>
+        <v>0.5968259846393842</v>
       </c>
       <c r="P15">
-        <v>0.7443502346040983</v>
+        <v>0.5968259846393843</v>
       </c>
       <c r="Q15">
-        <v>15198.31339684674</v>
+        <v>3.631986195737779</v>
       </c>
       <c r="R15">
-        <v>136784.8205716206</v>
+        <v>32.68787576164</v>
       </c>
       <c r="S15">
-        <v>0.3274099363942418</v>
+        <v>4.715951503163786E-05</v>
       </c>
       <c r="T15">
-        <v>0.3274099363942418</v>
+        <v>4.715951503163787E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>188.11053</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="H16">
-        <v>564.33159</v>
+        <v>0.13486</v>
       </c>
       <c r="I16">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="J16">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1439546666666667</v>
+        <v>0.05274599999999999</v>
       </c>
       <c r="N16">
-        <v>0.431864</v>
+        <v>0.158238</v>
       </c>
       <c r="O16">
-        <v>0.001326235929130571</v>
+        <v>0.0003896323115975859</v>
       </c>
       <c r="P16">
-        <v>0.001326235929130571</v>
+        <v>0.0003896323115975861</v>
       </c>
       <c r="Q16">
-        <v>27.07938864264001</v>
+        <v>0.00237110852</v>
       </c>
       <c r="R16">
-        <v>243.71449778376</v>
+        <v>0.02133997668</v>
       </c>
       <c r="S16">
-        <v>0.0005833582109789365</v>
+        <v>3.078765222781088E-08</v>
       </c>
       <c r="T16">
-        <v>0.0005833582109789365</v>
+        <v>3.078765222781089E-08</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>188.11053</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="H17">
-        <v>564.33159</v>
+        <v>0.13486</v>
       </c>
       <c r="I17">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="J17">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.53999566666667</v>
+        <v>37.53882766666667</v>
       </c>
       <c r="N17">
-        <v>70.61998699999999</v>
+        <v>112.616483</v>
       </c>
       <c r="O17">
-        <v>0.2168709688099352</v>
+        <v>0.2772976187469524</v>
       </c>
       <c r="P17">
-        <v>0.2168709688099352</v>
+        <v>0.2772976187469524</v>
       </c>
       <c r="Q17">
-        <v>4428.12106105437</v>
+        <v>1.687495433042222</v>
       </c>
       <c r="R17">
-        <v>39853.08954948933</v>
+        <v>15.18745889738</v>
       </c>
       <c r="S17">
-        <v>0.09539287663633865</v>
+        <v>2.191127993101011E-05</v>
       </c>
       <c r="T17">
-        <v>0.09539287663633864</v>
+        <v>2.191127993101011E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>188.11053</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="H18">
-        <v>564.33159</v>
+        <v>0.13486</v>
       </c>
       <c r="I18">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="J18">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.5362146666666666</v>
+        <v>0.5302206666666667</v>
       </c>
       <c r="N18">
-        <v>1.608644</v>
+        <v>1.590662</v>
       </c>
       <c r="O18">
-        <v>0.004940077130717815</v>
+        <v>0.003916716035531537</v>
       </c>
       <c r="P18">
-        <v>0.004940077130717815</v>
+        <v>0.003916716035531538</v>
       </c>
       <c r="Q18">
-        <v>100.86762514044</v>
+        <v>0.02383518636888889</v>
       </c>
       <c r="R18">
-        <v>907.80862626396</v>
+        <v>0.21451667732</v>
       </c>
       <c r="S18">
-        <v>0.002172942606797511</v>
+        <v>3.094879135731879E-07</v>
       </c>
       <c r="T18">
-        <v>0.002172942606797511</v>
+        <v>3.09487913573188E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>188.11053</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="H19">
-        <v>564.33159</v>
+        <v>0.13486</v>
       </c>
       <c r="I19">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="J19">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>1.513283</v>
+        <v>0.08212733333333333</v>
       </c>
       <c r="N19">
-        <v>4.539849</v>
+        <v>0.246382</v>
       </c>
       <c r="O19">
-        <v>0.01394168269785742</v>
+        <v>0.0006066708893946866</v>
       </c>
       <c r="P19">
-        <v>0.01394168269785741</v>
+        <v>0.0006066708893946868</v>
       </c>
       <c r="Q19">
-        <v>284.66446716999</v>
+        <v>0.003691897391111111</v>
       </c>
       <c r="R19">
-        <v>2561.98020452991</v>
+        <v>0.03322707652</v>
       </c>
       <c r="S19">
-        <v>0.006132389341909755</v>
+        <v>4.793743178751312E-08</v>
       </c>
       <c r="T19">
-        <v>0.006132389341909754</v>
+        <v>4.793743178751314E-08</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>99.694255</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="H20">
-        <v>299.082765</v>
+        <v>656.961365</v>
       </c>
       <c r="I20">
-        <v>0.2331157147689297</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="J20">
-        <v>0.2331157147689298</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.015745</v>
+        <v>16.37527</v>
       </c>
       <c r="N20">
-        <v>6.047235</v>
+        <v>49.12580999999999</v>
       </c>
       <c r="O20">
-        <v>0.01857080082826054</v>
+        <v>0.1209633773771395</v>
       </c>
       <c r="P20">
-        <v>0.01857080082826054</v>
+        <v>0.1209633773771395</v>
       </c>
       <c r="Q20">
-        <v>200.958196044975</v>
+        <v>3585.973243814516</v>
       </c>
       <c r="R20">
-        <v>1808.623764404775</v>
+        <v>32273.75919433065</v>
       </c>
       <c r="S20">
-        <v>0.004329145508911388</v>
+        <v>0.04656205998061877</v>
       </c>
       <c r="T20">
-        <v>0.004329145508911388</v>
+        <v>0.04656205998061878</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,13 +1706,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>99.694255</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="H21">
-        <v>299.082765</v>
+        <v>656.961365</v>
       </c>
       <c r="I21">
-        <v>0.2331157147689297</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="J21">
-        <v>0.2331157147689298</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>80.79459133333332</v>
+        <v>80.79459133333334</v>
       </c>
       <c r="N21">
         <v>242.383774</v>
       </c>
       <c r="O21">
-        <v>0.7443502346040983</v>
+        <v>0.5968259846393842</v>
       </c>
       <c r="P21">
-        <v>0.7443502346040983</v>
+        <v>0.5968259846393843</v>
       </c>
       <c r="Q21">
-        <v>8054.756591006121</v>
+        <v>17692.97500232128</v>
       </c>
       <c r="R21">
-        <v>72492.8093190551</v>
+        <v>159236.7750208915</v>
       </c>
       <c r="S21">
-        <v>0.1735197369781549</v>
+        <v>0.2297343865336113</v>
       </c>
       <c r="T21">
-        <v>0.1735197369781549</v>
+        <v>0.2297343865336113</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>99.694255</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="H22">
-        <v>299.082765</v>
+        <v>656.961365</v>
       </c>
       <c r="I22">
-        <v>0.2331157147689297</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="J22">
-        <v>0.2331157147689298</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1439546666666667</v>
+        <v>0.05274599999999999</v>
       </c>
       <c r="N22">
-        <v>0.431864</v>
+        <v>0.158238</v>
       </c>
       <c r="O22">
-        <v>0.001326235929130571</v>
+        <v>0.0003896323115975859</v>
       </c>
       <c r="P22">
-        <v>0.001326235929130571</v>
+        <v>0.0003896323115975861</v>
       </c>
       <c r="Q22">
-        <v>14.35145324710667</v>
+        <v>11.55069471943</v>
       </c>
       <c r="R22">
-        <v>129.16307922396</v>
+        <v>103.95625247487</v>
       </c>
       <c r="S22">
-        <v>0.0003091664365715087</v>
+        <v>0.0001499799646502145</v>
       </c>
       <c r="T22">
-        <v>0.0003091664365715088</v>
+        <v>0.0001499799646502145</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,13 +1830,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>99.694255</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="H23">
-        <v>299.082765</v>
+        <v>656.961365</v>
       </c>
       <c r="I23">
-        <v>0.2331157147689297</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="J23">
-        <v>0.2331157147689298</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.53999566666667</v>
+        <v>37.53882766666667</v>
       </c>
       <c r="N23">
-        <v>70.61998699999999</v>
+        <v>112.616483</v>
       </c>
       <c r="O23">
-        <v>0.2168709688099352</v>
+        <v>0.2772976187469524</v>
       </c>
       <c r="P23">
-        <v>0.2168709688099352</v>
+        <v>0.2772976187469524</v>
       </c>
       <c r="Q23">
-        <v>2346.802330691562</v>
+        <v>8220.519821464366</v>
       </c>
       <c r="R23">
-        <v>21121.22097622405</v>
+        <v>73984.6783931793</v>
       </c>
       <c r="S23">
-        <v>0.05055603090675832</v>
+        <v>0.1067393176062102</v>
       </c>
       <c r="T23">
-        <v>0.05055603090675832</v>
+        <v>0.1067393176062102</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>99.694255</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="H24">
-        <v>299.082765</v>
+        <v>656.961365</v>
       </c>
       <c r="I24">
-        <v>0.2331157147689297</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="J24">
-        <v>0.2331157147689298</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.5362146666666666</v>
+        <v>0.5302206666666667</v>
       </c>
       <c r="N24">
-        <v>1.608644</v>
+        <v>1.590662</v>
       </c>
       <c r="O24">
-        <v>0.004940077130717815</v>
+        <v>0.003916716035531537</v>
       </c>
       <c r="P24">
-        <v>0.004940077130717815</v>
+        <v>0.003916716035531538</v>
       </c>
       <c r="Q24">
-        <v>53.45752171340666</v>
+        <v>116.1114976415144</v>
       </c>
       <c r="R24">
-        <v>481.11769542066</v>
+        <v>1045.00347877363</v>
       </c>
       <c r="S24">
-        <v>0.001151609611340927</v>
+        <v>0.001507649430164938</v>
       </c>
       <c r="T24">
-        <v>0.001151609611340927</v>
+        <v>0.001507649430164938</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>218.9871216666667</v>
+      </c>
+      <c r="H25">
+        <v>656.961365</v>
+      </c>
+      <c r="I25">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="J25">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.08212733333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.246382</v>
+      </c>
+      <c r="O25">
+        <v>0.0006066708893946866</v>
+      </c>
+      <c r="P25">
+        <v>0.0006066708893946868</v>
+      </c>
+      <c r="Q25">
+        <v>17.98482833682555</v>
+      </c>
+      <c r="R25">
+        <v>161.86345503143</v>
+      </c>
+      <c r="S25">
+        <v>0.0002335239553738618</v>
+      </c>
+      <c r="T25">
+        <v>0.0002335239553738619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>128.612531</v>
+      </c>
+      <c r="H26">
+        <v>385.837593</v>
+      </c>
+      <c r="I26">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="J26">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>16.37527</v>
+      </c>
+      <c r="N26">
+        <v>49.12580999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.1209633773771395</v>
+      </c>
+      <c r="P26">
+        <v>0.1209633773771395</v>
+      </c>
+      <c r="Q26">
+        <v>2106.06492050837</v>
+      </c>
+      <c r="R26">
+        <v>18954.58428457533</v>
+      </c>
+      <c r="S26">
+        <v>0.02734619432003216</v>
+      </c>
+      <c r="T26">
+        <v>0.02734619432003216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>128.612531</v>
+      </c>
+      <c r="H27">
+        <v>385.837593</v>
+      </c>
+      <c r="I27">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="J27">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>80.79459133333334</v>
+      </c>
+      <c r="N27">
+        <v>242.383774</v>
+      </c>
+      <c r="O27">
+        <v>0.5968259846393842</v>
+      </c>
+      <c r="P27">
+        <v>0.5968259846393843</v>
+      </c>
+      <c r="Q27">
+        <v>10391.19688249067</v>
+      </c>
+      <c r="R27">
+        <v>93520.77194241599</v>
+      </c>
+      <c r="S27">
+        <v>0.1349244680917579</v>
+      </c>
+      <c r="T27">
+        <v>0.1349244680917579</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>128.612531</v>
+      </c>
+      <c r="H28">
+        <v>385.837593</v>
+      </c>
+      <c r="I28">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="J28">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.05274599999999999</v>
+      </c>
+      <c r="N28">
+        <v>0.158238</v>
+      </c>
+      <c r="O28">
+        <v>0.0003896323115975859</v>
+      </c>
+      <c r="P28">
+        <v>0.0003896323115975861</v>
+      </c>
+      <c r="Q28">
+        <v>6.783796560126</v>
+      </c>
+      <c r="R28">
+        <v>61.054169041134</v>
+      </c>
+      <c r="S28">
+        <v>8.808418826708911E-05</v>
+      </c>
+      <c r="T28">
+        <v>8.808418826708914E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>128.612531</v>
+      </c>
+      <c r="H29">
+        <v>385.837593</v>
+      </c>
+      <c r="I29">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="J29">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>37.53882766666667</v>
+      </c>
+      <c r="N29">
+        <v>112.616483</v>
+      </c>
+      <c r="O29">
+        <v>0.2772976187469524</v>
+      </c>
+      <c r="P29">
+        <v>0.2772976187469524</v>
+      </c>
+      <c r="Q29">
+        <v>4827.963636982826</v>
+      </c>
+      <c r="R29">
+        <v>43451.67273284542</v>
+      </c>
+      <c r="S29">
+        <v>0.062688680914505</v>
+      </c>
+      <c r="T29">
+        <v>0.06268868091450501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>99.694255</v>
-      </c>
-      <c r="H25">
-        <v>299.082765</v>
-      </c>
-      <c r="I25">
-        <v>0.2331157147689297</v>
-      </c>
-      <c r="J25">
-        <v>0.2331157147689298</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.513283</v>
-      </c>
-      <c r="N25">
-        <v>4.539849</v>
-      </c>
-      <c r="O25">
-        <v>0.01394168269785742</v>
-      </c>
-      <c r="P25">
-        <v>0.01394168269785741</v>
-      </c>
-      <c r="Q25">
-        <v>150.865621289165</v>
-      </c>
-      <c r="R25">
-        <v>1357.790591602485</v>
-      </c>
-      <c r="S25">
-        <v>0.003250025327192652</v>
-      </c>
-      <c r="T25">
-        <v>0.003250025327192652</v>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>128.612531</v>
+      </c>
+      <c r="H30">
+        <v>385.837593</v>
+      </c>
+      <c r="I30">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="J30">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.5302206666666667</v>
+      </c>
+      <c r="N30">
+        <v>1.590662</v>
+      </c>
+      <c r="O30">
+        <v>0.003916716035531537</v>
+      </c>
+      <c r="P30">
+        <v>0.003916716035531538</v>
+      </c>
+      <c r="Q30">
+        <v>68.19302192850735</v>
+      </c>
+      <c r="R30">
+        <v>613.7371973565661</v>
+      </c>
+      <c r="S30">
+        <v>0.0008854521106011484</v>
+      </c>
+      <c r="T30">
+        <v>0.0008854521106011486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>128.612531</v>
+      </c>
+      <c r="H31">
+        <v>385.837593</v>
+      </c>
+      <c r="I31">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="J31">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.08212733333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.246382</v>
+      </c>
+      <c r="O31">
+        <v>0.0006066708893946866</v>
+      </c>
+      <c r="P31">
+        <v>0.0006066708893946868</v>
+      </c>
+      <c r="Q31">
+        <v>10.56260420428067</v>
+      </c>
+      <c r="R31">
+        <v>95.063437838526</v>
+      </c>
+      <c r="S31">
+        <v>0.0001371501060024896</v>
+      </c>
+      <c r="T31">
+        <v>0.0001371501060024896</v>
       </c>
     </row>
   </sheetData>
